--- a/GestorReceitas/Setembro/Lanche.xlsx
+++ b/GestorReceitas/Setembro/Lanche.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586499AE-9C18-484B-8FAD-691873EA62D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lanche" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="156">
   <si>
     <t>Nome</t>
   </si>
@@ -485,8 +493,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -511,2049 +518,2340 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.4820671081543" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.4986333847046" customWidth="1"/>
-    <col min="4" max="4" width="10.4617099761963" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>300362838</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>300813775</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>297621556</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>305801384</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>304866814</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>304586153</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>304289027</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>300714777</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>304693057</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>306282100</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>305889605</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>297031724</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>299528812</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>297466747</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>298986752</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>300637730</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>303594306</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>306745321</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>301633835</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>304326852</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>306482576</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>295083212</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>303919655</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>303530561</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>307498190</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>303197951</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>298828626</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>306436043</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>306150352</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>307019420</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>302609628</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36">
         <v>303001879</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37">
         <v>306677741</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38">
         <v>324452136</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39">
         <v>306151197</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40">
         <v>300369077</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42">
         <v>318126885</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43">
         <v>298838125</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>301489769</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>300211163</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46">
         <v>303728795</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47">
         <v>298838222</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48">
         <v>299066630</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>300471769</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>302027238</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>306789825</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>294314008</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>294458310</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>294437452</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>296838098</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56">
         <v>295962968</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57">
         <v>294858016</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58">
         <v>294086803</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59">
         <v>293669155</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60">
         <v>294138170</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61">
         <v>295955694</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62">
         <v>294490094</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63">
         <v>325261180</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64">
         <v>298794098</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>294790713</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>300252730</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>294329528</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>294209018</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>295015160</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>293688036</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>290649064</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>293154252</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>292995962</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74">
         <v>289827167</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75">
         <v>289954339</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76">
         <v>290608600</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77">
         <v>292458118</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78">
         <v>290188881</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79">
         <v>290428718</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80">
         <v>292656050</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81">
         <v>290456495</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82">
         <v>290434122</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83">
         <v>292550553</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84">
         <v>291624650</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>79</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85">
         <v>319224287</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86">
         <v>289953316</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>96</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87">
         <v>289996570</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
         <v>97</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88">
         <v>291482376</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89">
         <v>291209890</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
         <v>99</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90">
         <v>290483948</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91">
         <v>298794284</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>95</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92">
         <v>295256893</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
         <v>102</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93">
         <v>290733480</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94">
         <v>294517022</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
         <v>104</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95">
         <v>290413206</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96">
         <v>290072883</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
         <v>106</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97">
         <v>291519180</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
         <v>107</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98">
         <v>291965016</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>95</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99">
         <v>292633963</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
         <v>109</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100">
         <v>292689675</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101">
         <v>293160295</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102">
         <v>288824520</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103">
         <v>292724411</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>112</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104">
         <v>288353005</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
         <v>115</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105">
         <v>287986489</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
         <v>116</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>112</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106">
         <v>287455114</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107">
         <v>300686439</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108">
         <v>289182573</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>112</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109">
         <v>288966252</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
         <v>120</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110">
         <v>292614292</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
         <v>121</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>112</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111">
         <v>289567882</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112">
         <v>289279429</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113">
         <v>290677599</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
         <v>124</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114">
         <v>288453484</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
         <v>125</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115">
         <v>288929144</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>126</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116">
         <v>289953944</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117">
         <v>288849868</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>112</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118">
         <v>290242142</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
         <v>129</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119">
         <v>291331734</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
         <v>130</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>112</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120">
         <v>289924723</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
         <v>131</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121">
         <v>325260486</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
         <v>132</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122">
         <v>285738380</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
         <v>134</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123">
         <v>285029908</v>
       </c>
-      <c r="D123" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
         <v>135</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124">
         <v>284615846</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
         <v>136</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125">
         <v>303282355</v>
       </c>
-      <c r="D125" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
         <v>137</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126">
         <v>285685376</v>
       </c>
-      <c r="D126" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>138</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>133</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127">
         <v>286101386</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
         <v>139</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>133</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128">
         <v>287949320</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
         <v>140</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>133</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129">
         <v>287525422</v>
       </c>
-      <c r="D129" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
         <v>141</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>133</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130">
         <v>286049732</v>
       </c>
-      <c r="D130" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
         <v>142</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>133</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131">
         <v>285445626</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>143</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>133</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132">
         <v>319224732</v>
       </c>
-      <c r="D132" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133">
         <v>284684813</v>
       </c>
-      <c r="D133" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134">
         <v>284925683</v>
       </c>
-      <c r="D134" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>146</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135">
         <v>285654349</v>
       </c>
-      <c r="D135" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
         <v>147</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136">
         <v>289100020</v>
       </c>
-      <c r="D136" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>148</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" t="s">
         <v>133</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137">
         <v>284853399</v>
       </c>
-      <c r="D137" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
         <v>149</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" t="s">
         <v>133</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138">
         <v>287499812</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
         <v>150</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" t="s">
         <v>133</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139">
         <v>286109921</v>
       </c>
-      <c r="D139" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
         <v>151</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" t="s">
         <v>133</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140">
         <v>286559870</v>
       </c>
-      <c r="D140" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
         <v>152</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" t="s">
         <v>133</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141">
         <v>285871544</v>
       </c>
-      <c r="D141" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
         <v>153</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" t="s">
         <v>133</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142">
         <v>287629660</v>
       </c>
-      <c r="D142" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
         <v>154</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" t="s">
         <v>133</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143">
         <v>287620778</v>
       </c>
-      <c r="D143" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
         <v>155</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" t="s">
         <v>133</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144">
         <v>285360124</v>
       </c>
-      <c r="D144" s="0" t="s">
-        <v>6</v>
+      <c r="D144">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GestorReceitas/Setembro/Lanche.xlsx
+++ b/GestorReceitas/Setembro/Lanche.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586499AE-9C18-484B-8FAD-691873EA62D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D7F3A3-4B51-43F6-96D2-39F82D20B83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lanche" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lanche!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="159">
   <si>
     <t>Nome</t>
   </si>
@@ -67,9 +70,6 @@
     <t>Gonçalo José Rocha Oliveira</t>
   </si>
   <si>
-    <t>Guilherme Soares Simão</t>
-  </si>
-  <si>
     <t>Letícia Azevedo Ferreira</t>
   </si>
   <si>
@@ -488,16 +488,33 @@
   </si>
   <si>
     <t>Tomás Monteiro Cunha</t>
+  </si>
+  <si>
+    <t>Yolanda de Oliveira Pedronho</t>
+  </si>
+  <si>
+    <t>Zoe Kaylane de Oliveira Pedronho</t>
+  </si>
+  <si>
+    <t>Outubro SIM</t>
+  </si>
+  <si>
+    <t>Outubro Não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -520,8 +537,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,2022 +855,2054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>300362838</v>
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>294314008</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>300813775</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1">
+        <v>294458310</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>297621556</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="1">
+        <v>294437452</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>305801384</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>296838098</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>304866814</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1">
+        <v>295962968</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="C7" s="1">
+        <v>294858016</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>304586153</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="1">
+        <v>294086803</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>304289027</v>
+        <v>58</v>
+      </c>
+      <c r="C9" s="1">
+        <v>293669155</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>300714777</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="1">
+        <v>294138170</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1">
+        <v>295955694</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1">
+        <v>294490094</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1">
+        <v>325261180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1">
+        <v>298794098</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1">
+        <v>294790713</v>
+      </c>
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>304693057</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>306282100</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>305889605</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>297031724</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1">
+        <v>300252730</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1">
+        <v>294329528</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>299528812</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1">
+        <v>294209018</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1">
+        <v>295015160</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1">
+        <v>293688036</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1">
+        <v>290649064</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>297466747</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>298986752</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>300637730</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>303594306</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>306745321</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>301633835</v>
+        <v>78</v>
+      </c>
+      <c r="C22" s="1">
+        <v>293154252</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>304326852</v>
+        <v>78</v>
+      </c>
+      <c r="C23" s="1">
+        <v>292995962</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>306482576</v>
-      </c>
-      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1">
+        <v>289827167</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="1">
+        <v>289954339</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1">
+        <v>290608600</v>
+      </c>
+      <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>295083212</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>303919655</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>303530561</v>
-      </c>
-      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1">
+        <v>292458118</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1">
+        <v>290188881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1">
+        <v>290428718</v>
+      </c>
+      <c r="D29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>307498190</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1">
+        <v>292656050</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1">
+        <v>290456495</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1">
+        <v>290434122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1">
+        <v>292550553</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1">
+        <v>291624650</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1">
+        <v>319224287</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1">
+        <v>328233382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1">
+        <v>289953316</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1">
+        <v>289996570</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1">
+        <v>291482376</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1">
+        <v>291209890</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1">
+        <v>290483948</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1">
+        <v>298794284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1">
+        <v>295256893</v>
+      </c>
+      <c r="D43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>303197951</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>298828626</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>306436043</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>306150352</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>307019420</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>302609628</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36">
-        <v>303001879</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <v>306677741</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38">
-        <v>324452136</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39">
-        <v>306151197</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40">
-        <v>300369077</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42">
-        <v>318126885</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43">
-        <v>298838125</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44">
-        <v>301489769</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1">
+        <v>290733480</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45">
-        <v>300211163</v>
+        <v>94</v>
+      </c>
+      <c r="C45" s="1">
+        <v>294517022</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46">
-        <v>303728795</v>
+        <v>94</v>
+      </c>
+      <c r="C46" s="1">
+        <v>290413206</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47">
-        <v>298838222</v>
+        <v>94</v>
+      </c>
+      <c r="C47" s="1">
+        <v>290072883</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48">
-        <v>299066630</v>
+        <v>94</v>
+      </c>
+      <c r="C48" s="1">
+        <v>291519180</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49">
-        <v>300471769</v>
+        <v>94</v>
+      </c>
+      <c r="C49" s="1">
+        <v>291965016</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50">
-        <v>302027238</v>
+        <v>94</v>
+      </c>
+      <c r="C50" s="1">
+        <v>292633963</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51">
-        <v>306789825</v>
+        <v>94</v>
+      </c>
+      <c r="C51" s="1">
+        <v>292689675</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52">
-        <v>294314008</v>
+        <v>94</v>
+      </c>
+      <c r="C52" s="1">
+        <v>293160295</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>294458310</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1">
+        <v>288824520</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54">
-        <v>294437452</v>
+        <v>111</v>
+      </c>
+      <c r="C54" s="1">
+        <v>292724411</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55">
-        <v>296838098</v>
+        <v>111</v>
+      </c>
+      <c r="C55" s="1">
+        <v>288353005</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56">
-        <v>295962968</v>
+        <v>111</v>
+      </c>
+      <c r="C56" s="1">
+        <v>287986489</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57">
-        <v>294858016</v>
+        <v>111</v>
+      </c>
+      <c r="C57" s="1">
+        <v>287455114</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58">
-        <v>294086803</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="C58" s="1">
+        <v>300686439</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59">
-        <v>293669155</v>
+        <v>111</v>
+      </c>
+      <c r="C59" s="1">
+        <v>289182573</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>294138170</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="C60" s="1">
+        <v>288966252</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>295955694</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="C61" s="1">
+        <v>292614292</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62">
-        <v>294490094</v>
+        <v>111</v>
+      </c>
+      <c r="C62" s="1">
+        <v>289567882</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63">
-        <v>325261180</v>
-      </c>
-      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="1">
+        <v>289279429</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="1">
+        <v>290677599</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="1">
+        <v>288453484</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="1">
+        <v>288929144</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="1">
+        <v>289953944</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="1">
+        <v>288849868</v>
+      </c>
+      <c r="D68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64">
-        <v>298794098</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65">
-        <v>294790713</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66">
-        <v>300252730</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67">
-        <v>294329528</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68">
-        <v>294209018</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69">
-        <v>295015160</v>
+        <v>111</v>
+      </c>
+      <c r="C69" s="1">
+        <v>290242142</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70">
-        <v>293688036</v>
+        <v>111</v>
+      </c>
+      <c r="C70" s="1">
+        <v>291331734</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71">
-        <v>290649064</v>
+        <v>111</v>
+      </c>
+      <c r="C71" s="1">
+        <v>289924723</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72">
-        <v>293154252</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="C72" s="1">
+        <v>325260486</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>292995962</v>
-      </c>
-      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="1">
+        <v>285738380</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="1">
+        <v>285029908</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="1">
+        <v>284615846</v>
+      </c>
+      <c r="D75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74">
-        <v>289827167</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75">
-        <v>289954339</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76">
-        <v>290608600</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="C76" s="1">
+        <v>303282355</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77">
-        <v>292458118</v>
+        <v>132</v>
+      </c>
+      <c r="C77" s="1">
+        <v>285685376</v>
       </c>
       <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78">
-        <v>290188881</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="C78" s="1">
+        <v>286101386</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79">
-        <v>290428718</v>
+        <v>132</v>
+      </c>
+      <c r="C79" s="1">
+        <v>287949320</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <v>292656050</v>
+        <v>132</v>
+      </c>
+      <c r="C80" s="1">
+        <v>287525422</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81">
-        <v>290456495</v>
+        <v>132</v>
+      </c>
+      <c r="C81" s="1">
+        <v>286049732</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82">
-        <v>290434122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="C82" s="1">
+        <v>285445626</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83">
-        <v>292550553</v>
+        <v>132</v>
+      </c>
+      <c r="C83" s="1">
+        <v>284684813</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84">
-        <v>291624650</v>
+        <v>132</v>
+      </c>
+      <c r="C84" s="1">
+        <v>319224732</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85">
-        <v>319224287</v>
+        <v>132</v>
+      </c>
+      <c r="C85" s="1">
+        <v>284925683</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86">
-        <v>289953316</v>
+        <v>132</v>
+      </c>
+      <c r="C86" s="1">
+        <v>285654349</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87">
-        <v>289996570</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="C87" s="1">
+        <v>289100020</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88">
-        <v>291482376</v>
+        <v>132</v>
+      </c>
+      <c r="C88" s="1">
+        <v>284853399</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89">
-        <v>291209890</v>
+        <v>132</v>
+      </c>
+      <c r="C89" s="1">
+        <v>287499812</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
-      </c>
-      <c r="C90">
-        <v>290483948</v>
+        <v>132</v>
+      </c>
+      <c r="C90" s="1">
+        <v>286109921</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91">
-        <v>298794284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="C91" s="1">
+        <v>286559870</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92">
-        <v>295256893</v>
-      </c>
-      <c r="D92" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="1">
+        <v>285871544</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="1">
+        <v>287629660</v>
+      </c>
+      <c r="D93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C93">
-        <v>290733480</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94">
-        <v>294517022</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="C94" s="1">
+        <v>287620778</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95">
-        <v>290413206</v>
+        <v>132</v>
+      </c>
+      <c r="C95" s="1">
+        <v>285360124</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96">
-        <v>290072883</v>
+        <v>5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>300362838</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97">
-        <v>291519180</v>
+        <v>5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>300813775</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C98">
-        <v>291965016</v>
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>297621556</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
-      </c>
-      <c r="C99">
-        <v>292633963</v>
+        <v>5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>305801384</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100">
-        <v>292689675</v>
+        <v>5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>304866814</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
-      </c>
-      <c r="C101">
-        <v>293160295</v>
+        <v>5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>306021153</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102">
-        <v>288824520</v>
+        <v>5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>304586153</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103">
-        <v>292724411</v>
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>304289027</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104">
-        <v>288353005</v>
+        <v>5</v>
+      </c>
+      <c r="C104" s="1">
+        <v>304693057</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105">
-        <v>287986489</v>
-      </c>
-      <c r="D105" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1">
+        <v>306282100</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106">
-        <v>287455114</v>
+        <v>5</v>
+      </c>
+      <c r="C106" s="1">
+        <v>305889605</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107">
-        <v>300686439</v>
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>297031724</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108">
-        <v>289182573</v>
+        <v>5</v>
+      </c>
+      <c r="C108" s="1">
+        <v>299528812</v>
       </c>
       <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109">
-        <v>288966252</v>
-      </c>
-      <c r="D109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1">
+        <v>297466747</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110">
-        <v>292614292</v>
-      </c>
-      <c r="D110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1">
+        <v>298986752</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111">
-        <v>289567882</v>
+        <v>5</v>
+      </c>
+      <c r="C111" s="1">
+        <v>305302639</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C112">
-        <v>289279429</v>
+        <v>5</v>
+      </c>
+      <c r="C112" s="1">
+        <v>300637730</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113">
-        <v>290677599</v>
+        <v>5</v>
+      </c>
+      <c r="C113" s="1">
+        <v>303594306</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114">
-        <v>288453484</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C114" s="1">
+        <v>306745321</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
-      </c>
-      <c r="C115">
-        <v>288929144</v>
+        <v>5</v>
+      </c>
+      <c r="C115" s="1">
+        <v>301633835</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
-      </c>
-      <c r="C116">
-        <v>289953944</v>
+        <v>5</v>
+      </c>
+      <c r="C116" s="1">
+        <v>304326852</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>112</v>
-      </c>
-      <c r="C117">
-        <v>288849868</v>
+        <v>5</v>
+      </c>
+      <c r="C117" s="1">
+        <v>306482576</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
-      </c>
-      <c r="C118">
-        <v>290242142</v>
+        <v>5</v>
+      </c>
+      <c r="C118" s="1">
+        <v>295083212</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
-      </c>
-      <c r="C119">
-        <v>291331734</v>
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>303919655</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>130</v>
-      </c>
-      <c r="B120" t="s">
-        <v>112</v>
-      </c>
-      <c r="C120">
-        <v>289924723</v>
-      </c>
-      <c r="D120" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="1">
+        <v>328390628</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
-      </c>
-      <c r="C121">
-        <v>325260486</v>
+        <v>32</v>
+      </c>
+      <c r="C121" s="1">
+        <v>303530561</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
-      </c>
-      <c r="C122">
-        <v>285738380</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C122" s="1">
+        <v>307498190</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
-      </c>
-      <c r="C123">
-        <v>285029908</v>
+        <v>32</v>
+      </c>
+      <c r="C123" s="1">
+        <v>303197951</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>133</v>
-      </c>
-      <c r="C124">
-        <v>284615846</v>
+        <v>32</v>
+      </c>
+      <c r="C124" s="1">
+        <v>298828626</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125">
-        <v>303282355</v>
+        <v>32</v>
+      </c>
+      <c r="C125" s="1">
+        <v>306436043</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126">
-        <v>285685376</v>
+        <v>32</v>
+      </c>
+      <c r="C126" s="1">
+        <v>306150352</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
-      </c>
-      <c r="C127">
-        <v>286101386</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C127" s="1">
+        <v>307019420</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
-      </c>
-      <c r="C128">
-        <v>287949320</v>
-      </c>
-      <c r="D128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" s="1">
+        <v>302609628</v>
+      </c>
+      <c r="D129" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>140</v>
-      </c>
-      <c r="B129" t="s">
-        <v>133</v>
-      </c>
-      <c r="C129">
-        <v>287525422</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130">
-        <v>286049732</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C130" s="1">
+        <v>303001879</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
-      </c>
-      <c r="C131">
-        <v>285445626</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C131" s="1">
+        <v>306677741</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
-      </c>
-      <c r="C132">
-        <v>319224732</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C132" s="1">
+        <v>324452136</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
-      </c>
-      <c r="C133">
-        <v>284684813</v>
+        <v>32</v>
+      </c>
+      <c r="C133" s="1">
+        <v>306151197</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134">
-        <v>284925683</v>
+        <v>32</v>
+      </c>
+      <c r="C134" s="1">
+        <v>300369077</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
-      </c>
-      <c r="C135">
-        <v>285654349</v>
+        <v>32</v>
+      </c>
+      <c r="C135" s="1">
+        <v>303976047</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>133</v>
-      </c>
-      <c r="C136">
-        <v>289100020</v>
-      </c>
-      <c r="D136" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C136" s="1">
+        <v>318126885</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="B137" t="s">
-        <v>133</v>
-      </c>
-      <c r="C137">
-        <v>284853399</v>
+        <v>32</v>
+      </c>
+      <c r="C137" s="1">
+        <v>298838125</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138">
-        <v>287499812</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C138" s="1">
+        <v>301489769</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
-      </c>
-      <c r="C139">
-        <v>286109921</v>
+        <v>32</v>
+      </c>
+      <c r="C139" s="1">
+        <v>300211163</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
-      </c>
-      <c r="C140">
-        <v>286559870</v>
+        <v>32</v>
+      </c>
+      <c r="C140" s="1">
+        <v>303728795</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="B141" t="s">
-        <v>133</v>
-      </c>
-      <c r="C141">
-        <v>285871544</v>
+        <v>32</v>
+      </c>
+      <c r="C141" s="1">
+        <v>298838222</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B142" t="s">
-        <v>133</v>
-      </c>
-      <c r="C142">
-        <v>287629660</v>
-      </c>
-      <c r="D142" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C142" s="1">
+        <v>299066630</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
-      </c>
-      <c r="C143">
-        <v>287620778</v>
-      </c>
-      <c r="D143" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C143" s="1">
+        <v>300471769</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
-      </c>
-      <c r="C144">
-        <v>285360124</v>
+        <v>32</v>
+      </c>
+      <c r="C144" s="1">
+        <v>302027238</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
     </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>56</v>
+      </c>
+      <c r="B145" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="1">
+        <v>306789825</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D145">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>